--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88690\Desktop\前後端\html\schedule_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EE1CEB-F71F-4F1D-9535-857671A3DCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF26B76A-2538-4E50-BF0E-5B8727294A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="41">
   <si>
     <t>妙嘉師姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,19 +135,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>丙午年開始共修</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>休息日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元辰燈佈置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台南道場春酒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -190,6 +178,27 @@
   </si>
   <si>
     <t>講經說法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宮慶
+王母娘娘聖誔祝壽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科儀佈置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丙午年開始共修日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南道場春酒/不共修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不共修</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -257,7 +266,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -272,6 +281,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,21 +622,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC7E5F7-9BF4-4EE4-94E1-F54D633F19E5}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" customWidth="1"/>
-    <col min="4" max="4" width="62.26953125" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="62.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -635,7 +650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="49.1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45997</v>
       </c>
@@ -643,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45997</v>
       </c>
@@ -663,7 +678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45998</v>
       </c>
@@ -671,13 +686,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45998</v>
       </c>
@@ -685,13 +700,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>46001</v>
       </c>
@@ -705,7 +720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>46004</v>
       </c>
@@ -713,13 +728,13 @@
         <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>46004</v>
       </c>
@@ -733,7 +748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>46005</v>
       </c>
@@ -741,13 +756,13 @@
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>46005</v>
       </c>
@@ -761,7 +776,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>46008</v>
       </c>
@@ -775,7 +790,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>46011</v>
       </c>
@@ -783,13 +798,13 @@
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>46011</v>
       </c>
@@ -803,7 +818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>46012</v>
       </c>
@@ -811,13 +826,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>46012</v>
       </c>
@@ -831,7 +846,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>46015</v>
       </c>
@@ -843,7 +858,7 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>46018</v>
       </c>
@@ -851,11 +866,11 @@
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>46018</v>
       </c>
@@ -867,7 +882,7 @@
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>46019</v>
       </c>
@@ -875,11 +890,11 @@
         <v>3</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>46019</v>
       </c>
@@ -891,7 +906,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>46022</v>
       </c>
@@ -903,7 +918,7 @@
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>46025</v>
       </c>
@@ -911,11 +926,11 @@
         <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>46025</v>
       </c>
@@ -927,7 +942,7 @@
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>46026</v>
       </c>
@@ -935,11 +950,11 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>46026</v>
       </c>
@@ -951,7 +966,7 @@
       </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>46029</v>
       </c>
@@ -963,7 +978,7 @@
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>46032</v>
       </c>
@@ -975,7 +990,7 @@
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>46033</v>
       </c>
@@ -983,13 +998,13 @@
         <v>13</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>46033</v>
       </c>
@@ -1001,7 +1016,7 @@
       </c>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>46036</v>
       </c>
@@ -1013,7 +1028,7 @@
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>46039</v>
       </c>
@@ -1025,7 +1040,7 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>46040</v>
       </c>
@@ -1037,7 +1052,7 @@
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>46043</v>
       </c>
@@ -1049,7 +1064,7 @@
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>46046</v>
       </c>
@@ -1061,7 +1076,7 @@
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>46047</v>
       </c>
@@ -1073,7 +1088,7 @@
       </c>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>46050</v>
       </c>
@@ -1085,7 +1100,7 @@
       </c>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>46053</v>
       </c>
@@ -1097,7 +1112,7 @@
       </c>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>46054</v>
       </c>
@@ -1109,7 +1124,7 @@
       </c>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>46057</v>
       </c>
@@ -1121,7 +1136,7 @@
       </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>46060</v>
       </c>
@@ -1133,7 +1148,7 @@
       </c>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>46061</v>
       </c>
@@ -1143,7 +1158,7 @@
       </c>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>46064</v>
       </c>
@@ -1157,137 +1172,137 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>46065</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>46066</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>46067</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>46068</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46069</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>46070</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>46071</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>46072</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>46073</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>46074</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>46075</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>46076</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>46077</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>46078</v>
       </c>
@@ -1298,32 +1313,56 @@
         <v>2</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A57" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
         <v>46081</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="34" x14ac:dyDescent="0.4">
-      <c r="A58" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
         <v>46082</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
+        <v>46264</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="6">
+        <v>46263</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF26B76A-2538-4E50-BF0E-5B8727294A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57A9B41-B390-45B1-B285-A1C625E8EBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="42">
   <si>
     <t>妙嘉師姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,6 +199,11 @@
   </si>
   <si>
     <t>不共修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課程 : 如何面對每個修行階段的自己
+https://www.youtube.com/watch?v=T0Obdlfrh4U</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +271,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -281,9 +286,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -624,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC7E5F7-9BF4-4EE4-94E1-F54D633F19E5}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
@@ -858,7 +860,7 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>46018</v>
       </c>
@@ -868,7 +870,9 @@
       <c r="C17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
@@ -1317,7 +1321,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="6">
+      <c r="A57" s="5">
         <v>46081</v>
       </c>
       <c r="B57" s="3"/>
@@ -1329,7 +1333,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="6">
+      <c r="A58" s="5">
         <v>46082</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -1341,7 +1345,7 @@
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="6">
+      <c r="A59" s="5">
         <v>46264</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -1353,11 +1357,11 @@
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="6">
+      <c r="A60" s="5">
         <v>46263</v>
       </c>
       <c r="B60" s="3"/>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D60" s="3" t="s">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57A9B41-B390-45B1-B285-A1C625E8EBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC93F0C-96A8-44BA-A3F4-082A196156C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="43">
   <si>
     <t>妙嘉師姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,6 +204,10 @@
   <si>
     <t>課程 : 如何面對每個修行階段的自己
 https://www.youtube.com/watch?v=T0Obdlfrh4U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/live/aQKCPmDvBKY?si=WhbnIdm3Jl8J_JCg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,7 +631,7 @@
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
@@ -635,7 +639,7 @@
     <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.75" customWidth="1"/>
-    <col min="4" max="4" width="62.25" customWidth="1"/>
+    <col min="4" max="4" width="69.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -879,12 +883,14 @@
         <v>46018</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC93F0C-96A8-44BA-A3F4-082A196156C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C97C963-495B-4C2C-AF3A-FB94F307409D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
@@ -207,8 +207,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.youtube.com/live/aQKCPmDvBKY?si=WhbnIdm3Jl8J_JCg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>https://www.youtube.com/watch?v=aQKCPmDvBKY</t>
   </si>
 </sst>
 </file>
@@ -631,7 +630,7 @@
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
@@ -656,7 +655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="49.1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45997</v>
       </c>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88690\Desktop\前後端\html\schedule_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8824247E-55F0-42B4-A884-C352DDB82E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5873C522-47C5-46C8-9052-586B8736DB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="46">
   <si>
     <t>妙嘉師姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,11 +132,6 @@
   </si>
   <si>
     <t>休息日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元辰燈科儀
-玉皇上帝天公祖祝壽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -177,11 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宮慶
-王母娘娘聖誔祝壽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>科儀佈置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,11 +200,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>台南道場春酒中午11:00-13:00/不共修</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科儀佈置+春酒</t>
+    <t>科儀活動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南道場春酒中午11:00-13:00
+13:30開始進行元辰燈科儀佈置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科儀活動佈置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南道場9週年宮慶暨王母娘娘聖誔祝壽活動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南道場115年元辰燈科儀暨玉皇上帝天公祖祝壽活動</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,19 +649,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC7E5F7-9BF4-4EE4-94E1-F54D633F19E5}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
-    <col min="4" max="4" width="69.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" customWidth="1"/>
+    <col min="4" max="4" width="69.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -672,7 +675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>45997</v>
       </c>
@@ -680,13 +683,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>45997</v>
       </c>
@@ -700,7 +703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>45998</v>
       </c>
@@ -708,13 +711,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>45998</v>
       </c>
@@ -722,13 +725,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>46001</v>
       </c>
@@ -742,7 +745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>46004</v>
       </c>
@@ -750,13 +753,13 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>46004</v>
       </c>
@@ -770,7 +773,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>46005</v>
       </c>
@@ -778,13 +781,13 @@
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>46005</v>
       </c>
@@ -798,7 +801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>46008</v>
       </c>
@@ -812,7 +815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>46011</v>
       </c>
@@ -820,13 +823,13 @@
         <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>46011</v>
       </c>
@@ -840,7 +843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>46012</v>
       </c>
@@ -848,13 +851,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>46012</v>
       </c>
@@ -868,7 +871,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>46015</v>
       </c>
@@ -880,7 +883,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>46018</v>
       </c>
@@ -888,13 +891,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>46018</v>
       </c>
@@ -905,10 +908,10 @@
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>46019</v>
       </c>
@@ -916,11 +919,11 @@
         <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>46019</v>
       </c>
@@ -932,7 +935,7 @@
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>46022</v>
       </c>
@@ -944,7 +947,7 @@
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>46025</v>
       </c>
@@ -952,11 +955,11 @@
         <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>46025</v>
       </c>
@@ -968,7 +971,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>46026</v>
       </c>
@@ -976,11 +979,11 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>46026</v>
       </c>
@@ -992,7 +995,7 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>46029</v>
       </c>
@@ -1004,7 +1007,7 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>46032</v>
       </c>
@@ -1016,7 +1019,7 @@
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>46033</v>
       </c>
@@ -1024,13 +1027,13 @@
         <v>13</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>46033</v>
       </c>
@@ -1042,7 +1045,7 @@
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>46036</v>
       </c>
@@ -1054,7 +1057,7 @@
       </c>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>46039</v>
       </c>
@@ -1066,17 +1069,17 @@
       </c>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>46039</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>46040</v>
       </c>
@@ -1088,17 +1091,17 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>46040</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>46043</v>
       </c>
@@ -1110,7 +1113,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>46046</v>
       </c>
@@ -1122,17 +1125,17 @@
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>46046</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>46047</v>
       </c>
@@ -1144,17 +1147,17 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>46047</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>46050</v>
       </c>
@@ -1166,7 +1169,7 @@
       </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>46053</v>
       </c>
@@ -1178,17 +1181,17 @@
       </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>46053</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>46054</v>
       </c>
@@ -1200,17 +1203,17 @@
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>46054</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>46057</v>
       </c>
@@ -1222,7 +1225,7 @@
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>46060</v>
       </c>
@@ -1234,7 +1237,7 @@
       </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>46061</v>
       </c>
@@ -1243,10 +1246,10 @@
         <v>24</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>46064</v>
       </c>
@@ -1257,10 +1260,10 @@
         <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>46065</v>
       </c>
@@ -1270,7 +1273,7 @@
       </c>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>46066</v>
       </c>
@@ -1280,7 +1283,7 @@
       </c>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>46067</v>
       </c>
@@ -1290,7 +1293,7 @@
       </c>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>46068</v>
       </c>
@@ -1300,7 +1303,7 @@
       </c>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>46069</v>
       </c>
@@ -1310,7 +1313,7 @@
       </c>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>46070</v>
       </c>
@@ -1320,7 +1323,7 @@
       </c>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>46071</v>
       </c>
@@ -1330,7 +1333,7 @@
       </c>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>46072</v>
       </c>
@@ -1340,7 +1343,7 @@
       </c>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>46073</v>
       </c>
@@ -1350,7 +1353,7 @@
       </c>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>46074</v>
       </c>
@@ -1360,7 +1363,7 @@
       </c>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>46075</v>
       </c>
@@ -1370,7 +1373,7 @@
       </c>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>46076</v>
       </c>
@@ -1380,7 +1383,7 @@
       </c>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>46077</v>
       </c>
@@ -1390,7 +1393,7 @@
       </c>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>46078</v>
       </c>
@@ -1401,22 +1404,22 @@
         <v>2</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="34" x14ac:dyDescent="0.4">
       <c r="A63" s="4">
         <v>46081</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D63" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
+      <c r="D63" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="4">
         <v>46082</v>
       </c>
@@ -1424,11 +1427,13 @@
         <v>0</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="4">
         <v>46264</v>
       </c>
@@ -1436,20 +1441,22 @@
         <v>13</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="4">
         <v>46263</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88690\Desktop\前後端\html\schedule_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5873C522-47C5-46C8-9052-586B8736DB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96623F70-DCFF-4BA0-928B-E99F8E0C33BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="47">
   <si>
     <t>妙嘉師姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +218,11 @@
   </si>
   <si>
     <t>台南道場115年元辰燈科儀暨玉皇上帝天公祖祝壽活動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課程 : 內心的提昇與覺醒
+https://www.youtube.com/watch?v=C3vqzkaFgIw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,19 +654,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC7E5F7-9BF4-4EE4-94E1-F54D633F19E5}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" customWidth="1"/>
-    <col min="4" max="4" width="69.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="69.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -675,7 +680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45997</v>
       </c>
@@ -689,7 +694,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45997</v>
       </c>
@@ -703,7 +708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45998</v>
       </c>
@@ -717,7 +722,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45998</v>
       </c>
@@ -731,7 +736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>46001</v>
       </c>
@@ -745,7 +750,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>46004</v>
       </c>
@@ -759,7 +764,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>46004</v>
       </c>
@@ -773,7 +778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>46005</v>
       </c>
@@ -787,7 +792,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>46005</v>
       </c>
@@ -801,7 +806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>46008</v>
       </c>
@@ -815,7 +820,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>46011</v>
       </c>
@@ -829,7 +834,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>46011</v>
       </c>
@@ -843,7 +848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>46012</v>
       </c>
@@ -857,7 +862,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>46012</v>
       </c>
@@ -871,7 +876,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>46015</v>
       </c>
@@ -883,7 +888,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>46018</v>
       </c>
@@ -897,7 +902,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>46018</v>
       </c>
@@ -911,7 +916,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>46019</v>
       </c>
@@ -921,9 +926,11 @@
       <c r="C19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D19" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>46019</v>
       </c>
@@ -935,7 +942,7 @@
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>46022</v>
       </c>
@@ -947,7 +954,7 @@
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>46025</v>
       </c>
@@ -959,7 +966,7 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>46025</v>
       </c>
@@ -971,7 +978,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>46026</v>
       </c>
@@ -983,7 +990,7 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>46026</v>
       </c>
@@ -995,7 +1002,7 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>46029</v>
       </c>
@@ -1007,7 +1014,7 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>46032</v>
       </c>
@@ -1019,7 +1026,7 @@
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>46033</v>
       </c>
@@ -1033,7 +1040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>46033</v>
       </c>
@@ -1045,7 +1052,7 @@
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>46036</v>
       </c>
@@ -1057,7 +1064,7 @@
       </c>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>46039</v>
       </c>
@@ -1069,7 +1076,7 @@
       </c>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>46039</v>
       </c>
@@ -1079,7 +1086,7 @@
       </c>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>46040</v>
       </c>
@@ -1091,7 +1098,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>46040</v>
       </c>
@@ -1101,7 +1108,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>46043</v>
       </c>
@@ -1113,7 +1120,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>46046</v>
       </c>
@@ -1125,7 +1132,7 @@
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>46046</v>
       </c>
@@ -1135,7 +1142,7 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>46047</v>
       </c>
@@ -1147,7 +1154,7 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>46047</v>
       </c>
@@ -1157,7 +1164,7 @@
       </c>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>46050</v>
       </c>
@@ -1169,7 +1176,7 @@
       </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>46053</v>
       </c>
@@ -1181,7 +1188,7 @@
       </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>46053</v>
       </c>
@@ -1191,7 +1198,7 @@
       </c>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>46054</v>
       </c>
@@ -1203,7 +1210,7 @@
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>46054</v>
       </c>
@@ -1213,7 +1220,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>46057</v>
       </c>
@@ -1225,7 +1232,7 @@
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>46060</v>
       </c>
@@ -1237,7 +1244,7 @@
       </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46061</v>
       </c>
@@ -1249,7 +1256,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46064</v>
       </c>
@@ -1263,7 +1270,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>46065</v>
       </c>
@@ -1273,7 +1280,7 @@
       </c>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>46066</v>
       </c>
@@ -1283,7 +1290,7 @@
       </c>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>46067</v>
       </c>
@@ -1293,7 +1300,7 @@
       </c>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>46068</v>
       </c>
@@ -1303,7 +1310,7 @@
       </c>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>46069</v>
       </c>
@@ -1313,7 +1320,7 @@
       </c>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>46070</v>
       </c>
@@ -1323,7 +1330,7 @@
       </c>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>46071</v>
       </c>
@@ -1333,7 +1340,7 @@
       </c>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>46072</v>
       </c>
@@ -1343,7 +1350,7 @@
       </c>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>46073</v>
       </c>
@@ -1353,7 +1360,7 @@
       </c>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>46074</v>
       </c>
@@ -1363,7 +1370,7 @@
       </c>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>46075</v>
       </c>
@@ -1373,7 +1380,7 @@
       </c>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>46076</v>
       </c>
@@ -1383,7 +1390,7 @@
       </c>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>46077</v>
       </c>
@@ -1393,7 +1400,7 @@
       </c>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>46078</v>
       </c>
@@ -1407,7 +1414,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="34" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>46081</v>
       </c>
@@ -1419,7 +1426,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>46082</v>
       </c>
@@ -1433,7 +1440,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>46264</v>
       </c>
@@ -1447,7 +1454,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>46263</v>
       </c>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96623F70-DCFF-4BA0-928B-E99F8E0C33BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F455728-1952-4B49-BBA8-63E48D0E5D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="48">
   <si>
     <t>妙嘉師姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +223,10 @@
   <si>
     <t>課程 : 內心的提昇與覺醒
 https://www.youtube.com/watch?v=C3vqzkaFgIw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vprah7CVNbE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -654,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC7E5F7-9BF4-4EE4-94E1-F54D633F19E5}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
@@ -935,12 +939,14 @@
         <v>46019</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F455728-1952-4B49-BBA8-63E48D0E5D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AF3F7B-A6CD-423D-B28D-59A90881D0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="50">
   <si>
     <t>妙嘉師姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,6 +227,14 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=vprah7CVNbE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活動問卷連結</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://docs.google.com/forms/d/e/1FAIpQLSdPY-Meaumrac160EfQY2hTpklHXMbcdz-h5tZuJYZCu9rcdg/viewform?usp=header</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -251,7 +259,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,6 +275,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,7 +314,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -320,6 +334,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -656,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC7E5F7-9BF4-4EE4-94E1-F54D633F19E5}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1472,6 +1489,30 @@
         <v>36</v>
       </c>
     </row>
+    <row r="67" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
+      <c r="A67" s="7">
+        <v>46023</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
+      <c r="A68" s="7">
+        <v>46054</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AF3F7B-A6CD-423D-B28D-59A90881D0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C79C808-B3E9-4CCA-B89B-236E5F2E7E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="54">
   <si>
     <t>妙嘉師姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,22 @@
   </si>
   <si>
     <t>https://docs.google.com/forms/d/e/1FAIpQLSdPY-Meaumrac160EfQY2hTpklHXMbcdz-h5tZuJYZCu9rcdg/viewform?usp=header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妙慈師姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享 : 如何有效渡人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炫印師兄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炫可師兄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -673,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC7E5F7-9BF4-4EE4-94E1-F54D633F19E5}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
@@ -970,7 +986,7 @@
         <v>46022</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>2</v>
@@ -1039,29 +1055,29 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>46032</v>
+        <v>46029</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>46033</v>
+        <v>46032</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -1071,16 +1087,18 @@
         <v>13</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>46036</v>
+        <v>46033</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>2</v>
@@ -1089,10 +1107,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>46039</v>
+        <v>46036</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>2</v>
@@ -1103,21 +1121,23 @@
       <c r="A32" s="1">
         <v>46039</v>
       </c>
-      <c r="B32" s="6"/>
+      <c r="B32" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C32" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>46040</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>4</v>
+        <v>46039</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2"/>
     </row>
@@ -1125,30 +1145,32 @@
       <c r="A34" s="1">
         <v>46040</v>
       </c>
-      <c r="B34" s="6"/>
+      <c r="B34" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C34" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>46043</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>11</v>
+        <v>46040</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>46046</v>
+        <v>46043</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>2</v>
@@ -1159,21 +1181,21 @@
       <c r="A37" s="1">
         <v>46046</v>
       </c>
-      <c r="B37" s="6"/>
+      <c r="B37" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C37" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>46047</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>4</v>
-      </c>
+        <v>46046</v>
+      </c>
+      <c r="B38" s="6"/>
       <c r="C38" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D38" s="2"/>
     </row>
@@ -1181,30 +1203,30 @@
       <c r="A39" s="1">
         <v>46047</v>
       </c>
-      <c r="B39" s="6"/>
+      <c r="B39" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C39" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>46050</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>46047</v>
+      </c>
+      <c r="B40" s="6"/>
       <c r="C40" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>46053</v>
+        <v>46050</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>2</v>
@@ -1215,21 +1237,23 @@
       <c r="A42" s="1">
         <v>46053</v>
       </c>
-      <c r="B42" s="6"/>
+      <c r="B42" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C42" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>46054</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>4</v>
+        <v>46053</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D43" s="2"/>
     </row>
@@ -1237,30 +1261,30 @@
       <c r="A44" s="1">
         <v>46054</v>
       </c>
-      <c r="B44" s="6"/>
+      <c r="B44" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C44" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>46057</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>46054</v>
+      </c>
+      <c r="B45" s="6"/>
       <c r="C45" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>46060</v>
+        <v>46057</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>2</v>
@@ -1269,43 +1293,45 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>46061</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>46060</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C47" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>46064</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>46061</v>
+      </c>
+      <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>46065</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>46064</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D49" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>46066</v>
+        <v>46065</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
@@ -1315,7 +1341,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>46067</v>
+        <v>46066</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
@@ -1325,7 +1351,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>46068</v>
+        <v>46067</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
@@ -1335,7 +1361,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>46069</v>
+        <v>46068</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
@@ -1345,7 +1371,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>46070</v>
+        <v>46069</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
@@ -1355,7 +1381,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>46071</v>
+        <v>46070</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
@@ -1365,7 +1391,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>46072</v>
+        <v>46071</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
@@ -1375,7 +1401,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>46073</v>
+        <v>46072</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
@@ -1385,7 +1411,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>46074</v>
+        <v>46073</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
@@ -1395,7 +1421,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>46075</v>
+        <v>46074</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
@@ -1405,7 +1431,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>46076</v>
+        <v>46075</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
@@ -1415,7 +1441,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>46077</v>
+        <v>46076</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
@@ -1425,91 +1451,101 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
         <v>46078</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="C63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="4">
+    <row r="64" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
         <v>46081</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2" t="s">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="4">
-        <v>46082</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
-        <v>46264</v>
+        <v>46082</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>44</v>
+      <c r="D65" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
+        <v>46264</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
         <v>46263</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
-      <c r="A67" s="7">
-        <v>46023</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>49</v>
+        <v>34</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D68" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
+      <c r="A69" s="7">
+        <v>46054</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>49</v>
       </c>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C79C808-B3E9-4CCA-B89B-236E5F2E7E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89096038-01DF-49EC-BF47-FB913C26CD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
@@ -692,7 +692,7 @@
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89096038-01DF-49EC-BF47-FB913C26CD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9A9D6C-C9F8-46F3-8805-608C74B811FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="55">
   <si>
     <t>妙嘉師姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,27 +96,6 @@
   <si>
     <t>妙本師姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/live/ao4AZq21l74?si=X5_258tBcg4mSRoI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/live/zEFJyDfljCM?si=Jd7vbkurDzPxFF1D</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/live/_Ic2PpdXnN4?si=YyBtEQ2skmtQMVFc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/live/li_tfUmNHo4?si=q6Ocww8IueSqxHqc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/live/qoD_Rl4OArc?si=Q8Ct2cJ3SgV1lt3N</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/live/jy0_8TxKXeM?si=wPT0CuXZjfOTvFhL</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/live/pmAhIhn33FE?si=Q1TooVGi6k3VomXf</t>
   </si>
   <si>
     <t>炫陽師兄</t>
@@ -189,9 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=aQKCPmDvBKY</t>
-  </si>
-  <si>
     <t>清屯 : 農曆12/24-最後共修日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=vprah7CVNbE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>活動問卷連結</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,6 +223,56 @@
   </si>
   <si>
     <t>炫可師兄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙佛開示
+https://www.youtube.com/live/ao4AZq21l74?si=X5_258tBcg4mSRoI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙佛開示
+https://www.youtube.com/live/zEFJyDfljCM?si=Jd7vbkurDzPxFF1D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙佛開示
+https://www.youtube.com/live/_Ic2PpdXnN4?si=YyBtEQ2skmtQMVFc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙佛開示
+https://www.youtube.com/live/li_tfUmNHo4?si=q6Ocww8IueSqxHqc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙佛開示
+https://www.youtube.com/live/qoD_Rl4OArc?si=Q8Ct2cJ3SgV1lt3N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙佛開示
+https://www.youtube.com/live/jy0_8TxKXeM?si=wPT0CuXZjfOTvFhL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙佛開示
+https://www.youtube.com/live/pmAhIhn33FE?si=Q1TooVGi6k3VomXf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙佛開示
+https://www.youtube.com/watch?v=aQKCPmDvBKY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙佛開示
+https://www.youtube.com/watch?v=vprah7CVNbE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙佛開示
+https://www.youtube.com/watch?v=uv_CI4yrOlM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -689,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC7E5F7-9BF4-4EE4-94E1-F54D633F19E5}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
@@ -725,13 +747,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45997</v>
       </c>
@@ -741,8 +763,8 @@
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
+      <c r="D3" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -753,10 +775,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -767,13 +789,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>46001</v>
       </c>
@@ -783,8 +805,8 @@
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
+      <c r="D6" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -795,13 +817,13 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>46004</v>
       </c>
@@ -811,8 +833,8 @@
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
+      <c r="D8" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -823,13 +845,13 @@
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>46005</v>
       </c>
@@ -839,11 +861,11 @@
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>46008</v>
       </c>
@@ -853,8 +875,8 @@
       <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
+      <c r="D11" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -865,13 +887,13 @@
         <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>46011</v>
       </c>
@@ -881,8 +903,8 @@
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>20</v>
+      <c r="D13" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -893,13 +915,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>46012</v>
       </c>
@@ -909,8 +931,8 @@
       <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>21</v>
+      <c r="D15" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -933,13 +955,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>46018</v>
       </c>
@@ -949,8 +971,8 @@
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>38</v>
+      <c r="D18" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -961,13 +983,13 @@
         <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>46019</v>
       </c>
@@ -977,11 +999,11 @@
       <c r="C20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>46022</v>
       </c>
@@ -991,7 +1013,9 @@
       <c r="C21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -1001,7 +1025,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2"/>
     </row>
@@ -1022,10 +1046,10 @@
         <v>46026</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2"/>
     </row>
@@ -1058,13 +1082,13 @@
         <v>46029</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1081,17 +1105,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>46033</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>46032</v>
+      </c>
+      <c r="B29" s="6"/>
       <c r="C29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -1101,16 +1121,18 @@
         <v>13</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>46036</v>
+        <v>46033</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>2</v>
@@ -1119,10 +1141,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>46039</v>
+        <v>46036</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>2</v>
@@ -1133,23 +1155,23 @@
       <c r="A33" s="1">
         <v>46039</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>14</v>
+      <c r="B33" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>46040</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>4</v>
+        <v>46039</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2"/>
     </row>
@@ -1157,32 +1179,32 @@
       <c r="A35" s="1">
         <v>46040</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>52</v>
+      <c r="B35" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>46043</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>11</v>
+        <v>46040</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>46046</v>
+        <v>46043</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>2</v>
@@ -1193,21 +1215,21 @@
       <c r="A38" s="1">
         <v>46046</v>
       </c>
-      <c r="B38" s="6"/>
+      <c r="B38" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C38" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>46047</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>4</v>
-      </c>
+        <v>46046</v>
+      </c>
+      <c r="B39" s="6"/>
       <c r="C39" s="2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2"/>
     </row>
@@ -1215,30 +1237,30 @@
       <c r="A40" s="1">
         <v>46047</v>
       </c>
-      <c r="B40" s="6"/>
+      <c r="B40" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C40" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>46050</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>46047</v>
+      </c>
+      <c r="B41" s="6"/>
       <c r="C41" s="2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>46053</v>
+        <v>46050</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>2</v>
@@ -1249,23 +1271,23 @@
       <c r="A43" s="1">
         <v>46053</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>53</v>
+      <c r="B43" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>46054</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>4</v>
+        <v>46053</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2"/>
     </row>
@@ -1273,30 +1295,30 @@
       <c r="A45" s="1">
         <v>46054</v>
       </c>
-      <c r="B45" s="6"/>
+      <c r="B45" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C45" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>46057</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>46054</v>
+      </c>
+      <c r="B46" s="6"/>
       <c r="C46" s="2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>46060</v>
+        <v>46057</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>2</v>
@@ -1305,248 +1327,260 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>46061</v>
-      </c>
-      <c r="B48" s="2"/>
+        <v>46060</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>46064</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>46061</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>46065</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>46064</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D50" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>46066</v>
+        <v>46065</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>46067</v>
+        <v>46066</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>46068</v>
+        <v>46067</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>46069</v>
+        <v>46068</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>46070</v>
+        <v>46069</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>46071</v>
+        <v>46070</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>46072</v>
+        <v>46071</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>46073</v>
+        <v>46072</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>46074</v>
+        <v>46073</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>46075</v>
+        <v>46074</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>46076</v>
+        <v>46075</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>46077</v>
+        <v>46076</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
         <v>46078</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="C64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>46081</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="4">
-        <v>46081</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="4">
-        <v>46082</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>45</v>
+      <c r="D65" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>46264</v>
+        <v>46082</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
+        <v>46264</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
         <v>46263</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
-      <c r="A68" s="7">
-        <v>46023</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>49</v>
+        <v>27</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
+      <c r="A70" s="7">
+        <v>46054</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9A9D6C-C9F8-46F3-8805-608C74B811FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CA131C-22A1-42E0-A827-9D2DF8E3EBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="55">
   <si>
     <t>妙嘉師姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -713,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC7E5F7-9BF4-4EE4-94E1-F54D633F19E5}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1227,7 +1227,9 @@
       <c r="A39" s="1">
         <v>46046</v>
       </c>
-      <c r="B39" s="6"/>
+      <c r="B39" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="C39" s="2" t="s">
         <v>25</v>
       </c>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CA131C-22A1-42E0-A827-9D2DF8E3EBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04178D2F-1B46-451D-BD8C-EECF27478E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="56">
   <si>
     <t>妙嘉師姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,6 +273,11 @@
   <si>
     <t>仙佛開示
 https://www.youtube.com/watch?v=uv_CI4yrOlM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課程 : 三無心法
+https://www.youtube.com/watch?v=pZ-sK69Tf18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -714,7 +719,7 @@
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1017,7 +1022,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>46025</v>
       </c>
@@ -1027,14 +1032,16 @@
       <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>46025</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>2</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04178D2F-1B46-451D-BD8C-EECF27478E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDC74F2-95FB-4F1F-BA0C-4186CE89DFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="57">
   <si>
     <t>妙嘉師姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,6 +278,11 @@
   <si>
     <t>課程 : 三無心法
 https://www.youtube.com/watch?v=pZ-sK69Tf18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙佛開示
+https://www.youtube.com/watch?v=NYbfHQMvUj4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -718,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC7E5F7-9BF4-4EE4-94E1-F54D633F19E5}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1036,7 +1041,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>46025</v>
       </c>
@@ -1046,7 +1051,9 @@
       <c r="C23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -1258,7 +1265,9 @@
       <c r="A41" s="1">
         <v>46047</v>
       </c>
-      <c r="B41" s="6"/>
+      <c r="B41" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="C41" s="2" t="s">
         <v>25</v>
       </c>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDC74F2-95FB-4F1F-BA0C-4186CE89DFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E529F6FA-2102-4905-BBC5-46450531228F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="58">
   <si>
     <t>妙嘉師姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,6 +283,11 @@
   <si>
     <t>仙佛開示
 https://www.youtube.com/watch?v=NYbfHQMvUj4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課程 : 知道、求道、行道
+https://www.youtube.com/watch?v=Lq4ziyNg63U</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -721,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC7E5F7-9BF4-4EE4-94E1-F54D633F19E5}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1055,7 +1060,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>46026</v>
       </c>
@@ -1065,9 +1070,11 @@
       <c r="C24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>46026</v>
       </c>
@@ -1075,16 +1082,18 @@
         <v>4</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>46029</v>
+        <v>46026</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>2</v>
@@ -1096,50 +1105,48 @@
         <v>46029</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>46032</v>
+        <v>46029</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>46032</v>
       </c>
-      <c r="B29" s="6"/>
+      <c r="B29" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>46033</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>46032</v>
+      </c>
+      <c r="B30" s="6"/>
       <c r="C30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
@@ -1149,16 +1156,18 @@
         <v>13</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>46036</v>
+        <v>46033</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>2</v>
@@ -1167,10 +1176,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>46039</v>
+        <v>46036</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>2</v>
@@ -1181,23 +1190,23 @@
       <c r="A34" s="1">
         <v>46039</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>14</v>
+      <c r="B34" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>46040</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>4</v>
+        <v>46039</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2"/>
     </row>
@@ -1205,32 +1214,32 @@
       <c r="A36" s="1">
         <v>46040</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>43</v>
+      <c r="B36" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>46043</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>11</v>
+        <v>46040</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>46046</v>
+        <v>46043</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>2</v>
@@ -1241,23 +1250,23 @@
       <c r="A39" s="1">
         <v>46046</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>10</v>
+      <c r="B39" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>46047</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>4</v>
+        <v>46046</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2"/>
     </row>
@@ -1265,32 +1274,32 @@
       <c r="A41" s="1">
         <v>46047</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>3</v>
+      <c r="B41" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>46050</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>11</v>
+        <v>46047</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>46053</v>
+        <v>46050</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>2</v>
@@ -1301,23 +1310,23 @@
       <c r="A44" s="1">
         <v>46053</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>44</v>
+      <c r="B44" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>46054</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>4</v>
+        <v>46053</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2"/>
     </row>
@@ -1325,30 +1334,30 @@
       <c r="A46" s="1">
         <v>46054</v>
       </c>
-      <c r="B46" s="6"/>
+      <c r="B46" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>46057</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>46054</v>
+      </c>
+      <c r="B47" s="6"/>
       <c r="C47" s="2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>46060</v>
+        <v>46057</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>2</v>
@@ -1357,43 +1366,45 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>46061</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>46060</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>46064</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>46061</v>
+      </c>
+      <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>46065</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>46064</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>46066</v>
+        <v>46065</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
@@ -1403,7 +1414,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>46067</v>
+        <v>46066</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
@@ -1413,7 +1424,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>46068</v>
+        <v>46067</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
@@ -1423,7 +1434,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>46069</v>
+        <v>46068</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
@@ -1433,7 +1444,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>46070</v>
+        <v>46069</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
@@ -1443,7 +1454,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>46071</v>
+        <v>46070</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
@@ -1453,7 +1464,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>46072</v>
+        <v>46071</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
@@ -1463,7 +1474,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>46073</v>
+        <v>46072</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
@@ -1473,7 +1484,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>46074</v>
+        <v>46073</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
@@ -1483,7 +1494,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>46075</v>
+        <v>46074</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
@@ -1493,7 +1504,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>46076</v>
+        <v>46075</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
@@ -1503,7 +1514,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>46077</v>
+        <v>46076</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
@@ -1513,91 +1524,101 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
         <v>46078</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="C65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="4">
+    <row r="66" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
         <v>46081</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2" t="s">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="4">
-        <v>46082</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>46264</v>
+        <v>46082</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>36</v>
+      <c r="D67" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
+        <v>46264</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
         <v>46263</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
-      <c r="A69" s="7">
-        <v>46023</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D70" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
+      <c r="A71" s="7">
+        <v>46054</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>40</v>
       </c>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E529F6FA-2102-4905-BBC5-46450531228F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37A3DB5-BD81-42B9-87A1-6AEE33B0143D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="59">
   <si>
     <t>妙嘉師姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +288,11 @@
   <si>
     <t>課程 : 知道、求道、行道
 https://www.youtube.com/watch?v=Lq4ziyNg63U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙佛開示
+https://www.youtube.com/watch?v=oCqSu0J2ekE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,7 +734,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1088,7 +1093,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>46026</v>
       </c>
@@ -1098,7 +1103,9 @@
       <c r="C26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37A3DB5-BD81-42B9-87A1-6AEE33B0143D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174D07DC-07F1-48F3-A485-9C1A510F7338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="60">
   <si>
     <t>妙嘉師姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -293,6 +293,11 @@
   <si>
     <t>仙佛開示
 https://www.youtube.com/watch?v=oCqSu0J2ekE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙佛加持科儀
+https://www.youtube.com/watch?v=BPo3KSAeS30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -734,7 +739,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1107,7 +1112,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>46029</v>
       </c>
@@ -1117,7 +1122,9 @@
       <c r="C27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174D07DC-07F1-48F3-A485-9C1A510F7338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2527459-A9C3-4AF9-BFFD-8CB015A416EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="62">
   <si>
     <t>妙嘉師姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,6 +298,14 @@
   <si>
     <t>仙佛加持科儀
 https://www.youtube.com/watch?v=BPo3KSAeS30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課程 : 道場的氣場密碼-從人性到心性的實踐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙佛開示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -738,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC7E5F7-9BF4-4EE4-94E1-F54D633F19E5}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1150,17 +1158,23 @@
       <c r="C29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>46032</v>
       </c>
-      <c r="B30" s="6"/>
+      <c r="B30" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2527459-A9C3-4AF9-BFFD-8CB015A416EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4E890C-F534-48EE-8EB7-281C288EF48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
@@ -301,11 +301,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>課程 : 道場的氣場密碼-從人性到心性的實踐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仙佛開示</t>
+    <t>仙佛開示
+https://youtu.be/oupnevzSET8?si=H9Sfu6TKGYzLtVBl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課程 : 道場的氣場密碼-從人性到心性實踐
+https://www.youtube.com/live/sMIokoxy3vk?si=JZgF45740yhQzoIW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1148,7 +1150,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>46032</v>
       </c>
@@ -1158,11 +1160,11 @@
       <c r="C29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>46032</v>
       </c>
@@ -1173,7 +1175,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4E890C-F534-48EE-8EB7-281C288EF48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8BD1DD-DF81-4982-8813-C32446B4C0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
@@ -749,7 +749,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8BD1DD-DF81-4982-8813-C32446B4C0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBF763F-39F4-480D-93A9-60FF93C295D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="63">
   <si>
     <t>妙嘉師姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,10 +99,6 @@
   </si>
   <si>
     <t>炫陽師兄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>靈禪雙修</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -308,6 +304,17 @@
   <si>
     <t>課程 : 道場的氣場密碼-從人性到心性實踐
 https://www.youtube.com/live/sMIokoxy3vk?si=JZgF45740yhQzoIW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靈禪雙修
+上 : https://www.youtube.com/live/qEpUblQrgZA?si=cp-C9B_AmBow4eVs
+下 : https://www.youtube.com/live/o0ZVWIWHkj8?si=Op1AruL66xHq2dEb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙佛開示
+https://www.youtube.com/live/cxbLWDXKGaU?si=Y4mbJxUK0dn_Zx0b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -749,7 +756,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
@@ -782,10 +789,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -799,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -810,10 +817,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -824,10 +831,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -841,7 +848,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -852,10 +859,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -869,7 +876,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -880,10 +887,10 @@
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -897,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -911,7 +918,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -922,10 +929,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -939,7 +946,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -950,10 +957,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -967,7 +974,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -990,10 +997,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1007,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1018,10 +1025,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1035,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1049,7 +1056,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1060,10 +1067,10 @@
         <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1077,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1088,10 +1095,10 @@
         <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1102,10 +1109,10 @@
         <v>4</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1119,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1133,7 +1140,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1141,13 +1148,13 @@
         <v>46029</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1161,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1172,13 +1179,13 @@
         <v>0</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="49.1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>46033</v>
       </c>
@@ -1186,23 +1193,25 @@
         <v>13</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>46033</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
@@ -1236,7 +1245,7 @@
         <v>14</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D35" s="2"/>
     </row>
@@ -1257,10 +1266,10 @@
         <v>46040</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D37" s="2"/>
     </row>
@@ -1296,7 +1305,7 @@
         <v>10</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D40" s="2"/>
     </row>
@@ -1320,7 +1329,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D42" s="2"/>
     </row>
@@ -1353,10 +1362,10 @@
         <v>46053</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D45" s="2"/>
     </row>
@@ -1378,7 +1387,7 @@
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D47" s="2"/>
     </row>
@@ -1412,10 +1421,10 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1429,7 +1438,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1438,7 +1447,7 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2"/>
     </row>
@@ -1448,7 +1457,7 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2"/>
     </row>
@@ -1458,7 +1467,7 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2"/>
     </row>
@@ -1468,7 +1477,7 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2"/>
     </row>
@@ -1478,7 +1487,7 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2"/>
     </row>
@@ -1488,7 +1497,7 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2"/>
     </row>
@@ -1498,7 +1507,7 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2"/>
     </row>
@@ -1508,7 +1517,7 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2"/>
     </row>
@@ -1518,7 +1527,7 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2"/>
     </row>
@@ -1528,7 +1537,7 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2"/>
     </row>
@@ -1538,7 +1547,7 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2"/>
     </row>
@@ -1548,7 +1557,7 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2"/>
     </row>
@@ -1558,7 +1567,7 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2"/>
     </row>
@@ -1573,7 +1582,7 @@
         <v>2</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1582,10 +1591,10 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1596,10 +1605,10 @@
         <v>0</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1610,10 +1619,10 @@
         <v>13</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1622,10 +1631,10 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1634,10 +1643,10 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1646,10 +1655,10 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBF763F-39F4-480D-93A9-60FF93C295D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C00C17C-D1B8-4EDB-92EE-F8E01AC9BD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="64">
   <si>
     <t>妙嘉師姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,6 +315,11 @@
   <si>
     <t>仙佛開示
 https://www.youtube.com/live/cxbLWDXKGaU?si=Y4mbJxUK0dn_Zx0b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙佛開示
+https://www.youtube.com/live/L6tY0meKrwU?si=KVTrn0B-Don-7owJ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -756,7 +761,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1213,7 +1218,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>46036</v>
       </c>
@@ -1223,7 +1228,9 @@
       <c r="C33" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C00C17C-D1B8-4EDB-92EE-F8E01AC9BD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0F3E01-A833-4A56-9002-F08316231922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
@@ -319,7 +319,7 @@
   </si>
   <si>
     <t>仙佛開示
-https://www.youtube.com/live/L6tY0meKrwU?si=KVTrn0B-Don-7owJ</t>
+https://www.youtube.com/live/hdA-RLMepJo?si=Yx-ktmubHFwPHx9B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -761,7 +761,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0F3E01-A833-4A56-9002-F08316231922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED58F5DC-F2E5-45F5-A46E-BE17C0EA69B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="66">
   <si>
     <t>妙嘉師姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,6 +320,15 @@
   <si>
     <t>仙佛開示
 https://www.youtube.com/live/hdA-RLMepJo?si=Yx-ktmubHFwPHx9B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課程 : 聖蓮三寶心法
+https://www.youtube.com/watch?v=C-AW8QJU0dA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙佛開示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -344,7 +353,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,6 +375,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,7 +414,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -422,6 +437,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -761,7 +779,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1242,19 +1260,23 @@
       <c r="C34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>46039</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED58F5DC-F2E5-45F5-A46E-BE17C0EA69B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6757F653-4D24-4088-9177-F7443427B646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="65">
   <si>
     <t>妙嘉師姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,10 +211,6 @@
   </si>
   <si>
     <t>分享 : 如何有效渡人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炫印師兄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -778,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC7E5F7-9BF4-4EE4-94E1-F54D633F19E5}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
@@ -829,7 +825,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -871,7 +867,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -899,7 +895,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -927,7 +923,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -941,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -969,7 +965,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -997,7 +993,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1037,7 +1033,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1065,7 +1061,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1079,7 +1075,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1093,7 +1089,7 @@
         <v>24</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1107,7 +1103,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1121,7 +1117,7 @@
         <v>24</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1135,7 +1131,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1149,7 +1145,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1163,7 +1159,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1191,7 +1187,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1205,7 +1201,7 @@
         <v>24</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="49.1" x14ac:dyDescent="0.3">
@@ -1219,7 +1215,7 @@
         <v>24</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1233,7 +1229,7 @@
         <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1247,7 +1243,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1261,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1275,7 +1271,7 @@
         <v>24</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1295,7 +1291,7 @@
         <v>46040</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>24</v>
@@ -1391,7 +1387,7 @@
         <v>46053</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>24</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6757F653-4D24-4088-9177-F7443427B646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EE4DC8-A0B5-48E0-BD14-F7879EAB5FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
+    <workbookView xWindow="2880" yWindow="2579" windowWidth="20566" windowHeight="10852" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>仙佛開示</t>
+    <t>仙佛開示
+https://www.youtube.com/live/09pm-Ue2DeM?si=KI4nIQsLGbYbgdtH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -775,7 +776,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1246,7 +1247,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>46039</v>
       </c>
@@ -1256,7 +1257,7 @@
       <c r="C34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>64</v>
       </c>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EE4DC8-A0B5-48E0-BD14-F7879EAB5FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1C0A18-5D6B-48F1-A8D1-C7E25B549C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="2579" windowWidth="20566" windowHeight="10852" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="67">
   <si>
     <t>妙嘉師姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,6 +326,15 @@
   <si>
     <t>仙佛開示
 https://www.youtube.com/live/09pm-Ue2DeM?si=KI4nIQsLGbYbgdtH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙佛開示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課程 : 淺談修行
+https://www.youtube.com/watch?v=BVDnqEw9yVk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -776,7 +785,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1285,9 +1294,11 @@
       <c r="C36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>46040</v>
       </c>
@@ -1297,7 +1308,9 @@
       <c r="C37" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1C0A18-5D6B-48F1-A8D1-C7E25B549C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107D7D9E-97C9-4E48-AF88-93DDC9939022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107D7D9E-97C9-4E48-AF88-93DDC9939022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B0ABCD-CA91-4660-93C0-2894AB50B6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
@@ -329,12 +329,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>仙佛開示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>課程 : 淺談修行
+    <t>課程 : 淺談「修行」
 https://www.youtube.com/watch?v=BVDnqEw9yVk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙佛開示
+https://www.youtube.com/watch?v=wONMtQuwLrE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -785,7 +786,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1284,7 +1285,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>46040</v>
       </c>
@@ -1294,8 +1295,8 @@
       <c r="C36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>65</v>
+      <c r="D36" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1309,7 +1310,7 @@
         <v>24</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B0ABCD-CA91-4660-93C0-2894AB50B6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAFDC2C-0492-4169-AABC-6AB8B0FFA842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="68">
   <si>
     <t>妙嘉師姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,6 +336,10 @@
   <si>
     <t>仙佛開示
 https://www.youtube.com/watch?v=wONMtQuwLrE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫停共修</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -786,7 +790,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1317,11 +1321,9 @@
       <c r="A38" s="1">
         <v>46043</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="D38" s="2"/>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAFDC2C-0492-4169-AABC-6AB8B0FFA842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE6E56F-0BE9-47AA-9B14-E24461EE94A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="68">
   <si>
     <t>妙嘉師姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -789,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC7E5F7-9BF4-4EE4-94E1-F54D633F19E5}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1367,9 +1367,7 @@
       <c r="A42" s="1">
         <v>46047</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="B42" s="6"/>
       <c r="C42" s="2" t="s">
         <v>24</v>
       </c>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE6E56F-0BE9-47AA-9B14-E24461EE94A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EDA76C-8BBF-4AEB-966B-EEC40C5D4C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="70">
   <si>
     <t>妙嘉師姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,6 +340,16 @@
   </si>
   <si>
     <t>暫停共修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課程 : 修行初衷
+https://www.youtube.com/live/ThmChnPSMHI?si=sxN3ao_n7BeAg38c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙佛開示
+https://www.youtube.com/live/OdwzDjQwrs8?si=sjdC0YJPTVOIFFsq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -790,7 +800,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1327,7 +1337,7 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>46046</v>
       </c>
@@ -1337,9 +1347,11 @@
       <c r="C39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D39" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>46046</v>
       </c>
@@ -1349,7 +1361,9 @@
       <c r="C40" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="2"/>
+      <c r="D40" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EDA76C-8BBF-4AEB-966B-EEC40C5D4C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55A10C0-57E0-4354-A32C-A02070D01F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="72">
   <si>
     <t>妙嘉師姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -350,6 +350,16 @@
   <si>
     <t>仙佛開示
 https://www.youtube.com/live/OdwzDjQwrs8?si=sjdC0YJPTVOIFFsq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課程 : 惜福、習福
+https://www.youtube.com/watch?v=2do4AqEM1SM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">仙佛開示
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -797,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC7E5F7-9BF4-4EE4-94E1-F54D633F19E5}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1365,7 +1375,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>46047</v>
       </c>
@@ -1375,17 +1385,23 @@
       <c r="C41" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D41" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>46047</v>
       </c>
-      <c r="B42" s="6"/>
+      <c r="B42" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C42" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="2"/>
+      <c r="D42" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
@@ -1471,43 +1487,45 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>46061</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>46060</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C50" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>46064</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>46061</v>
+      </c>
+      <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>46065</v>
-      </c>
-      <c r="B52" s="2"/>
+        <v>46064</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>46066</v>
+        <v>46065</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
@@ -1517,7 +1535,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>46067</v>
+        <v>46066</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
@@ -1527,7 +1545,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>46068</v>
+        <v>46067</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
@@ -1537,7 +1555,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>46069</v>
+        <v>46068</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
@@ -1547,7 +1565,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>46070</v>
+        <v>46069</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
@@ -1557,7 +1575,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>46071</v>
+        <v>46070</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
@@ -1567,7 +1585,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>46072</v>
+        <v>46071</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
@@ -1577,7 +1595,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>46073</v>
+        <v>46072</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
@@ -1587,7 +1605,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>46074</v>
+        <v>46073</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
@@ -1597,7 +1615,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>46075</v>
+        <v>46074</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
@@ -1607,7 +1625,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>46076</v>
+        <v>46075</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
@@ -1617,7 +1635,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>46077</v>
+        <v>46076</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
@@ -1627,91 +1645,101 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
+        <v>46077</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
         <v>46078</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" s="2" t="s">
+      <c r="C66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="4">
+    <row r="67" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
         <v>46081</v>
       </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2" t="s">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="4">
-        <v>46082</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <v>46264</v>
+        <v>46082</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>35</v>
+      <c r="D68" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
+        <v>46264</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
         <v>46263</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
-      <c r="A70" s="7">
-        <v>46023</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>39</v>
+        <v>26</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D71" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="7">
+        <v>46054</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>39</v>
       </c>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55A10C0-57E0-4354-A32C-A02070D01F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE686FB-41CF-45DC-8306-0327A662530B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
@@ -358,8 +358,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">仙佛開示
-</t>
+    <t>仙佛開示
+https://www.youtube.com/watch?v=irGlvIErK9w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -810,7 +810,7 @@
   <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE686FB-41CF-45DC-8306-0327A662530B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1659A691-F1FC-4C67-ADA6-7E62372A76AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="73">
   <si>
     <t>妙嘉師姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,6 +360,11 @@
   <si>
     <t>仙佛開示
 https://www.youtube.com/watch?v=irGlvIErK9w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙佛開示
+https://www.youtube.com/live/grl6vftuieU?si=_cKgPrU1kR68VMfn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -810,7 +815,7 @@
   <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1403,7 +1408,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>46050</v>
       </c>
@@ -1413,7 +1418,9 @@
       <c r="C43" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1659A691-F1FC-4C67-ADA6-7E62372A76AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457E7399-9988-4986-9B27-DCF815313B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="75">
   <si>
     <t>妙嘉師姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -365,6 +365,16 @@
   <si>
     <t>仙佛開示
 https://www.youtube.com/live/grl6vftuieU?si=_cKgPrU1kR68VMfn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課程 : 求道的認知
+https://www.youtube.com/live/eATBbFm22WY?si=-MiE2T9kNLkPfpi0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙佛開示
+https://www.youtube.com/live/mXIvWnr5-QE?si=JLVOsyA_BA8zNf7B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -815,7 +825,7 @@
   <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1422,19 +1432,21 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>46053</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>46053</v>
       </c>
@@ -1444,7 +1456,9 @@
       <c r="C45" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="D45" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457E7399-9988-4986-9B27-DCF815313B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBA7D2B-5F11-4C1C-A912-A36F6530A712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="77">
   <si>
     <t>妙嘉師姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,6 +375,15 @@
   <si>
     <t>仙佛開示
 https://www.youtube.com/live/mXIvWnr5-QE?si=JLVOsyA_BA8zNf7B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課程 : 元辰燈科儀演練
+臉書直播...台南道場幹部群組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙佛開示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -824,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC7E5F7-9BF4-4EE4-94E1-F54D633F19E5}">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1470,17 +1479,23 @@
       <c r="C46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D46" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46054</v>
       </c>
-      <c r="B47" s="6"/>
+      <c r="B47" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C47" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="2"/>
+      <c r="D47" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
@@ -1499,7 +1514,7 @@
         <v>46060</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>2</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBA7D2B-5F11-4C1C-A912-A36F6530A712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B91519-ACA2-4BD6-B740-8C095C9D6CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="76">
   <si>
     <t>妙嘉師姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,10 +161,6 @@
   <si>
     <t>課程 : 如何面對每個修行階段的自己
 https://www.youtube.com/watch?v=T0Obdlfrh4U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清屯 : 農曆12/24-最後共修日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -834,7 +830,7 @@
   <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
@@ -884,7 +880,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -926,7 +922,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -954,7 +950,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -982,7 +978,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -996,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1024,7 +1020,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1052,7 +1048,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1092,7 +1088,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1106,7 +1102,7 @@
         <v>24</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1120,7 +1116,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1134,7 +1130,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1148,7 +1144,7 @@
         <v>24</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1162,7 +1158,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1176,7 +1172,7 @@
         <v>24</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1190,7 +1186,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1204,7 +1200,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1218,7 +1214,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1226,13 +1222,13 @@
         <v>46029</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1246,7 +1242,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1260,7 +1256,7 @@
         <v>24</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="49.1" x14ac:dyDescent="0.3">
@@ -1274,7 +1270,7 @@
         <v>24</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1288,7 +1284,7 @@
         <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1302,7 +1298,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1316,7 +1312,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1330,7 +1326,7 @@
         <v>24</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1344,7 +1340,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1358,7 +1354,7 @@
         <v>24</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1367,7 +1363,7 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D38" s="2"/>
     </row>
@@ -1382,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1396,7 +1392,7 @@
         <v>24</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1410,7 +1406,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1424,7 +1420,7 @@
         <v>24</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1438,7 +1434,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1452,7 +1448,7 @@
         <v>2</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1460,13 +1456,13 @@
         <v>46053</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1480,7 +1476,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1494,7 +1490,7 @@
         <v>24</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1542,22 +1538,18 @@
         <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>46064</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
@@ -1709,10 +1701,10 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1723,10 +1715,10 @@
         <v>0</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1737,10 +1729,10 @@
         <v>13</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1761,10 +1753,10 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
@@ -1773,10 +1765,10 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\有病毒\9_聖務相關(鸞文)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b1dc021c0c1567d/桌面/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B91519-ACA2-4BD6-B740-8C095C9D6CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D800AC2-16BE-4ECC-98E3-7D09F3EC9622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{52712379-B316-4EAD-AC73-58048AA1D425}"/>
   </bookViews>
@@ -379,7 +379,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>仙佛開示</t>
+    <t>仙佛開示
+https://www.youtube.com/live/yN96H7KHRNw?si=3JVgx8B6Qcf6MXPL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -830,7 +831,7 @@
   <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1465,7 +1466,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="32.75" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>46054</v>
       </c>
@@ -1475,7 +1476,7 @@
       <c r="C46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="3" t="s">
         <v>75</v>
       </c>
     </row>
